--- a/src/main/resources/data/history/Master - Season 01.xlsx
+++ b/src/main/resources/data/history/Master - Season 01.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
   <workbookPr codeName="EstaPastaDeTrabalho" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\WorkSpaces\workspace estudo\pokemonGoPvpAnalyzer\src\main\resources\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\WorkSpaces\workspace estudo\pokemonGoPvpAnalyzer\src\main\resources\data\history\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34F07F8E-307A-4703-AF16-2DA327EF4C77}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0333DCCC-A65B-4AAC-9FEC-4C8ED879EB5D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{68075319-8292-4D77-A75F-91AD9F2E35E0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{68075319-8292-4D77-A75F-91AD9F2E35E0}"/>
   </bookViews>
   <sheets>
     <sheet name="History" sheetId="7" r:id="rId1"/>
@@ -1344,8 +1344,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4CDF088-F31A-4ECE-9171-B65EB8013283}">
   <dimension ref="A1:F804"/>
   <sheetViews>
-    <sheetView topLeftCell="A761" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A777" sqref="A777"/>
+    <sheetView tabSelected="1" topLeftCell="A100" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G105" sqref="G105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19827,7 +19827,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE3ACB55-5D50-44AC-A914-44229FBE70D8}">
   <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
